--- a/data/trans_dic/P20B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P20B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>27,14%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35,34%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,37%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>8,27; 62,99</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 60,49</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 53,21</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 15,69</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0; 11,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 12,61</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 15,69</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 31,34</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 29,1</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 30,55</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,03</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 8,27</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>12,35; 36,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>7,37; 31,46</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,34%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>7,17; 38,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>13,75; 44,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>11,27; 56,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>24,21; 57,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>10,21; 31,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>14,34; 37,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>11,04; 44,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>13,75; 46,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>11,56; 30,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>17,32; 34,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>17,09; 41,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>22,32; 47,12</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 58,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>7,74; 42,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>8,61; 60,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>24,6; 56,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,0; 40,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>14,68; 45,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>9,78; 38,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>11,26; 33,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>3,78; 29,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>15,16; 37,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>12,03; 37,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>20,69; 39,31</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,22%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 52,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>25,27; 55,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>14,31; 50,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>19,32; 62,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>15,47; 57,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>15,26; 35,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>17,95; 55,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>15,63; 54,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>13,88; 47,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>21,85; 39,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>19,39; 45,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>20,01; 49,59</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,17%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 47,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>29,07; 82,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>20,53; 88,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>14,7; 88,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,0; 22,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>9,72; 54,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>8,22; 66,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>4,26; 35,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>2,93; 29,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>22,64; 56,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>23,33; 65,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>12,33; 47,3</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,63%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>8,88; 70,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>8,99; 62,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>14,37; 59,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>12,89; 41,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>8,75; 36,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>4,01; 34,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>13,55; 53,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>5,48; 32,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>12,09; 37,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>10,05; 38,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>19,89; 48,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>12,4; 31,31</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,24%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>20,2; 53,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>16,5; 52,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>13,71; 56,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>13,49; 42,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>18,66; 42,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>14,51; 40,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>13,31; 40,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>19,72; 41,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>23,85; 44,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>18,36; 38,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>17,66; 39,61</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>19,54; 37,42</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,97%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>12,12; 45,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>6,24; 32,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>17,34; 49,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>17,18; 50,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>9,47; 30,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>14,84; 40,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>9,12; 32,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>5,97; 26,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>13,04; 30,86</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>14,43; 31,72</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>15,98; 34,68</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>14,09; 33,29</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,48%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>19,75; 33,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>23,42; 37,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>26,65; 42,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>26,58; 39,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>15,55; 25,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>20,11; 29,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>19,59; 30,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>17,87; 28,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>18,4; 26,81</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>23,22; 30,67</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>23,57; 32,47</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>23,77; 31,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,66%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,81; 72,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,21</t>
+          <t>0,0; 53,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,3; 46,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 29,1</t>
+          <t>5,5; 28,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,98; 49,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 31,46</t>
+          <t>7,45; 32,82</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>34,82%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,21; 57,08</t>
+          <t>24,33; 57,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 46,05</t>
+          <t>14,25; 46,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 47,12</t>
+          <t>22,84; 47,78</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>29,8%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,6; 56,93</t>
+          <t>24,55; 57,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 33,1</t>
+          <t>11,26; 33,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,69; 39,31</t>
+          <t>20,87; 39,64</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>33,41%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,27; 55,32</t>
+          <t>8,99; 44,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,32; 62,34</t>
+          <t>18,44; 61,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,26; 35,09</t>
+          <t>9,1; 37,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 54,45</t>
+          <t>16,35; 54,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,85; 39,04</t>
+          <t>11,59; 33,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,01; 49,59</t>
+          <t>19,86; 49,66</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>53,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,7; 88,41</t>
+          <t>14,68; 88,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 35,29</t>
+          <t>4,26; 35,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,33; 47,3</t>
+          <t>12,36; 47,49</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>20,74%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,89; 41,05</t>
+          <t>12,95; 41,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 32,01</t>
+          <t>5,51; 32,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 31,31</t>
+          <t>12,44; 31,54</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>28,06%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,49; 42,36</t>
+          <t>13,17; 41,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,72; 41,72</t>
+          <t>19,42; 41,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,54; 37,42</t>
+          <t>19,32; 36,98</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,77%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,18; 50,37</t>
+          <t>17,75; 50,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,97; 26,83</t>
+          <t>6,27; 27,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,09; 33,29</t>
+          <t>14,79; 34,36</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>33,12%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>27,69%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,58; 39,38</t>
+          <t>26,42; 39,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,87; 28,71</t>
+          <t>18,07; 28,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>23,77; 31,45</t>
+          <t>23,86; 31,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 62,99</t>
+          <t>8,27; 55,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,81; 72,24</t>
+          <t>30,55; 71,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 60,49</t>
+          <t>13,01; 61,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,46</t>
+          <t>0,0; 49,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 46,71</t>
+          <t>14,28; 44,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 31,34</t>
+          <t>7,58; 32,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 28,94</t>
+          <t>5,64; 27,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 30,55</t>
+          <t>3,59; 29,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,98; 49,77</t>
+          <t>25,79; 51,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 36,52</t>
+          <t>12,5; 36,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 32,82</t>
+          <t>7,43; 31,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 38,73</t>
+          <t>7,25; 37,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 44,15</t>
+          <t>14,85; 45,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 56,48</t>
+          <t>14,93; 53,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,33; 57,42</t>
+          <t>22,25; 57,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,21; 31,59</t>
+          <t>10,07; 33,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 37,71</t>
+          <t>14,41; 38,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 44,07</t>
+          <t>10,36; 43,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,25; 46,79</t>
+          <t>13,28; 47,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 30,44</t>
+          <t>11,07; 29,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 34,9</t>
+          <t>16,96; 36,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 41,72</t>
+          <t>16,22; 43,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,84; 47,78</t>
+          <t>23,89; 48,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,13</t>
+          <t>0,0; 65,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 42,34</t>
+          <t>8,11; 40,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 60,49</t>
+          <t>8,6; 59,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,55; 57,04</t>
+          <t>24,02; 56,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,84</t>
+          <t>0,0; 36,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 45,13</t>
+          <t>14,44; 45,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 38,9</t>
+          <t>9,31; 39,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 33,27</t>
+          <t>12,15; 34,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 29,65</t>
+          <t>3,76; 31,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 37,38</t>
+          <t>14,01; 36,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 37,85</t>
+          <t>11,38; 37,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,87; 39,64</t>
+          <t>21,23; 41,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,64</t>
+          <t>0,0; 55,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 44,89</t>
+          <t>9,03; 47,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 50,41</t>
+          <t>14,81; 49,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 61,88</t>
+          <t>17,16; 60,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 57,27</t>
+          <t>14,55; 56,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,1; 37,02</t>
+          <t>9,01; 36,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 55,35</t>
+          <t>18,82; 56,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 54,24</t>
+          <t>15,0; 52,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,88; 47,34</t>
+          <t>14,0; 47,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,59; 33,11</t>
+          <t>12,61; 35,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,39; 45,8</t>
+          <t>21,38; 47,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,86; 49,66</t>
+          <t>20,53; 48,39</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,99</t>
+          <t>6,3; 47,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,07; 82,65</t>
+          <t>24,53; 78,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,53; 88,58</t>
+          <t>22,01; 88,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 88,48</t>
+          <t>14,46; 88,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,66</t>
+          <t>0,0; 28,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 54,54</t>
+          <t>9,8; 56,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,22; 66,71</t>
+          <t>8,06; 67,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 35,56</t>
+          <t>4,16; 34,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 29,77</t>
+          <t>3,0; 25,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,64; 56,12</t>
+          <t>20,71; 54,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,33; 65,88</t>
+          <t>21,46; 66,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,36; 47,49</t>
+          <t>11,21; 46,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,88; 70,39</t>
+          <t>8,58; 71,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,99; 62,28</t>
+          <t>7,34; 62,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,37; 59,9</t>
+          <t>15,15; 62,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,95; 41,1</t>
+          <t>14,7; 40,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,75; 36,51</t>
+          <t>8,52; 37,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 34,95</t>
+          <t>3,86; 32,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,55; 53,0</t>
+          <t>12,87; 51,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 32,14</t>
+          <t>5,6; 31,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,09; 37,92</t>
+          <t>13,27; 39,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,05; 38,71</t>
+          <t>10,39; 41,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,89; 48,81</t>
+          <t>20,33; 49,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 31,54</t>
+          <t>12,75; 30,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,2; 53,51</t>
+          <t>21,39; 54,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,5; 52,92</t>
+          <t>15,1; 52,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,71; 56,21</t>
+          <t>16,24; 58,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,17; 41,86</t>
+          <t>13,04; 42,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,66; 42,95</t>
+          <t>18,39; 43,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,51; 40,07</t>
+          <t>14,68; 37,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,31; 40,13</t>
+          <t>13,1; 39,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,42; 41,53</t>
+          <t>20,01; 40,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,85; 44,38</t>
+          <t>23,27; 42,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,36; 38,06</t>
+          <t>18,71; 38,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,66; 39,61</t>
+          <t>17,75; 40,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,32; 36,98</t>
+          <t>20,47; 37,36</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,12; 45,02</t>
+          <t>11,4; 45,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,24; 32,68</t>
+          <t>6,01; 31,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,34; 49,16</t>
+          <t>18,85; 50,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,75; 50,8</t>
+          <t>16,11; 50,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,47; 30,86</t>
+          <t>9,47; 31,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,84; 40,2</t>
+          <t>14,7; 39,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,12; 32,18</t>
+          <t>8,93; 32,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,27; 27,85</t>
+          <t>6,42; 27,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,04; 30,86</t>
+          <t>13,12; 31,01</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,43; 31,72</t>
+          <t>14,99; 32,33</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,98; 34,68</t>
+          <t>15,94; 34,78</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,79; 34,36</t>
+          <t>13,99; 34,01</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,75; 33,9</t>
+          <t>18,86; 34,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,42; 37,28</t>
+          <t>23,14; 37,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,65; 42,15</t>
+          <t>26,16; 40,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,42; 39,33</t>
+          <t>26,4; 39,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,58</t>
+          <t>15,68; 25,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,11; 29,77</t>
+          <t>19,77; 29,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,59; 30,26</t>
+          <t>19,18; 29,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,07; 28,68</t>
+          <t>18,29; 27,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,4; 26,81</t>
+          <t>18,3; 26,69</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23,22; 30,67</t>
+          <t>23,13; 30,62</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,47</t>
+          <t>23,44; 32,62</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,59</t>
+          <t>23,49; 31,91</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que estuvo en lista de espera por ingreso hospitalario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2735</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12477</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5527</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10565</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5624</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2683</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2735</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23042</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11151</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5154</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>834; 5602</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7486; 17629</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2036; 9627</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5917</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1974</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5275; 16394</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2548; 10774</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1066; 5161</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>813; 6731</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15843; 31864</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6158; 18149</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2299; 9862</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5094</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11253</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6645</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15203</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9004</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14700</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6090</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14099</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25953</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15460</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21293</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1872; 9564</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6271; 19129</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3133; 11321</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8619; 22097</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4761; 15780</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8580; 22642</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3735; 15586</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2977; 10615</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8090; 21432</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17258; 36753</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9257; 24941</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14611; 29577</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5131</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2611</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11062</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9129</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6813</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2923</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14261</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9661</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17876</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4825</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1983; 9816</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>780; 5419</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6520; 15317</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5956</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4903; 15568</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3025; 12676</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3989; 11366</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>890; 7390</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8181; 21472</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4729; 15492</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12732; 24813</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4782</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8347</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8663</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6494</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7523</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11116</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10340</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7464</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12306</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19463</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4132</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1820; 9556</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4156; 13939</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3988; 14070</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2707; 10583</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3288; 13427</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6002; 18138</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5045; 17656</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3640; 12364</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7142; 20282</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12816; 28731</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11676; 27522</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2698</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7049</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4774</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2283</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5843</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3830</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>12892</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8604</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3413</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>822; 6210</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3241; 10388</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1907; 7669</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>623; 3813</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5441</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2097; 11984</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>906; 7636</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>344; 2812</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>957; 8242</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7168; 18861</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4272; 13187</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1409; 5809</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3615</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5165</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6367</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6220</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5956</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4153</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7998</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9571</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9317</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14366</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>898; 7458</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1129; 9687</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2755; 11398</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3565; 9916</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2606; 11396</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1033; 8629</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3414; 13673</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1209; 6710</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5448; 16056</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4378; 17614</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9087; 22058</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5846; 13981</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12570</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9533</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8875</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8974</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>15063</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>15181</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>28802</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>24596</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>20875</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>24154</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>7293; 18662</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4644; 16289</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4248; 15393</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4595; 14958</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9868; 23492</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8614; 22249</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6311; 18890</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>10172; 20626</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>20416; 37705</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>16729; 34355</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>13194; 29979</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>17618; 32159</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>6532</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6364</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>11603</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>7400</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>9498</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>15287</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>9215</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>16030</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>21650</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>20818</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>11722</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2931; 11610</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2230; 11836</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6730; 17865</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3720; 11584</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>4780; 16112</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>8934; 23755</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>4423; 16089</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1822; 7861</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>9997; 23632</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>14671; 31643</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>13590; 29645</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>7200; 17506</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>35163</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>61754</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>54751</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>62276</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>50158</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>82264</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>65647</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>49843</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>85321</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>144017</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>120398</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>112120</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>25274; 45688</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>48081; 78523</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>42502; 66360</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>49639; 74594</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>38941; 62932</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>66124; 98443</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>51703; 79847</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>39667; 60527</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>69951; 102057</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>125411; 166042</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>101246; 140920</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>95101; 129204</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>